--- a/results/Michigan_Scenario1.xlsx
+++ b/results/Michigan_Scenario1.xlsx
@@ -487,7 +487,7 @@
         <v>157198169.2379748</v>
       </c>
       <c r="O2">
-        <v>997231273.4821823</v>
+        <v>997231273.4820803</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -581,7 +581,7 @@
         <v>112287399.7566837</v>
       </c>
       <c r="O4">
-        <v>884835869.3469532</v>
+        <v>884835869.1340063</v>
       </c>
     </row>
   </sheetData>
